--- a/xlsx/基地组织_intext.xlsx
+++ b/xlsx/基地组织_intext.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="323">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="320">
   <si>
     <t>基地组织</t>
   </si>
@@ -29,7 +29,7 @@
     <t>反恐战争</t>
   </si>
   <si>
-    <t>政策_政策_美國_基地组织</t>
+    <t>政策_政策_美国_基地组织</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/War_in_Afghanistan_(1978%E2%80%93present)</t>
@@ -59,7 +59,7 @@
     <t>https://zh.wikipedia.org/wiki/%E9%81%9C%E5%B0%BC%E6%B4%BE</t>
   </si>
   <si>
-    <t>遜尼派</t>
+    <t>逊尼派</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%93%A6%E5%93%88%E6%AF%94%E6%B4%BE</t>
@@ -77,25 +77,25 @@
     <t>https://zh.wikipedia.org/wiki/%E8%B3%BD%E8%90%8A%E8%8F%B2</t>
   </si>
   <si>
-    <t>賽萊菲</t>
+    <t>赛莱菲</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%BA%AB%E7%89%B9%E5%B8%83%E4%B8%BB%E7%BE%A9</t>
   </si>
   <si>
-    <t>庫特布主義</t>
+    <t>库特布主义</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B3%9B%E4%BC%8A%E6%96%AF%E8%98%AD%E4%B8%BB%E7%BE%A9</t>
   </si>
   <si>
-    <t>泛伊斯蘭主義</t>
+    <t>泛伊斯兰主义</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A5%A7%E8%96%A9%E7%91%AA%C2%B7%E8%B3%93%E6%8B%89%E7%99%BB</t>
   </si>
   <si>
-    <t>奧薩瑪·賓拉登</t>
+    <t>奥萨玛·宾拉登</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%89%BE%E6%9B%BC%C2%B7%E6%89%8E%E7%93%A6%E5%B8%8C%E9%87%8C</t>
@@ -131,7 +131,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%8A%AA%E6%96%AF%E6%8B%89%E9%99%A3%E7%B7%9A</t>
   </si>
   <si>
-    <t>努斯拉陣線</t>
+    <t>努斯拉阵线</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A1%94%E5%88%A9%E7%8F%AD</t>
@@ -167,7 +167,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%99%94%E8%AA%A0%E8%BB%8D</t>
   </si>
   <si>
-    <t>虔誠軍</t>
+    <t>虔诚军</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Jaish-e-Mohammed</t>
@@ -179,7 +179,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%9B%9E%E6%95%99%E7%A5%88%E7%A6%B1%E5%9C%98</t>
   </si>
   <si>
-    <t>回教祈禱團</t>
+    <t>回教祈祷团</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8D%9A%E7%A7%91%E5%9C%A3%E5%9C%B0</t>
@@ -191,7 +191,7 @@
     <t>https://zh.wikipedia.org/wiki/%E4%BC%8A%E6%96%AF%E8%98%AD%E5%9C%8B</t>
   </si>
   <si>
-    <t>伊斯蘭國</t>
+    <t>伊斯兰国</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%98%BF%E5%B8%83%E6%B2%99%E8%80%B6%E5%A4%AB</t>
@@ -203,7 +203,7 @@
     <t>https://zh.wikipedia.org/wiki/%E9%AB%98%E5%8A%A0%E7%B4%A2%E9%85%8B%E9%95%B7%E5%9C%8B</t>
   </si>
   <si>
-    <t>高加索酋長國</t>
+    <t>高加索酋长国</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%81%94%E5%90%88%E5%9B%BD%E5%AE%89%E5%85%A8%E7%90%86%E4%BA%8B%E4%BC%9A</t>
@@ -215,13 +215,13 @@
     <t>https://zh.wikipedia.org/wiki/%E5%8C%97%E5%A4%A7%E8%A5%BF%E6%B4%8B%E5%85%AC%E7%B4%84%E7%B5%84%E7%B9%94</t>
   </si>
   <si>
-    <t>北大西洋公約組織</t>
+    <t>北大西洋公约组织</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B</t>
   </si>
   <si>
-    <t>美國</t>
+    <t>美国</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%8B%B1%E5%9B%BD</t>
@@ -251,7 +251,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%8D%B7%E8%98%AD</t>
   </si>
   <si>
-    <t>荷蘭</t>
+    <t>荷兰</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%9C%9F%E8%80%B3%E5%85%B6</t>
@@ -269,7 +269,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%84%9B%E7%88%BE%E8%98%AD%E5%85%B1%E5%92%8C%E5%9C%8B</t>
   </si>
   <si>
-    <t>愛爾蘭共和國</t>
+    <t>爱尔兰共和国</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%91%9E%E5%85%B8</t>
@@ -305,19 +305,19 @@
     <t>https://zh.wikipedia.org/wiki/%E6%B2%99%E7%83%8F%E5%9C%B0%E9%98%BF%E6%8B%89%E4%BC%AF</t>
   </si>
   <si>
-    <t>沙烏地阿拉伯</t>
+    <t>沙乌地阿拉伯</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%91%89%E9%96%80</t>
   </si>
   <si>
-    <t>葉門</t>
+    <t>叶门</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%A6%AC%E9%87%8C%E5%85%B1%E5%92%8C%E5%9C%8B</t>
   </si>
   <si>
-    <t>馬里共和國</t>
+    <t>马里共和国</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%82%AF%E5%B0%BC%E4%BA%9A</t>
@@ -329,13 +329,13 @@
     <t>https://zh.wikipedia.org/wiki/%E7%B4%A2%E9%A6%AC%E5%88%A9%E4%BA%9E</t>
   </si>
   <si>
-    <t>索馬利亞</t>
+    <t>索马利亚</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BF%84%E7%BE%85%E6%96%AF</t>
   </si>
   <si>
-    <t>俄羅斯</t>
+    <t>俄罗斯</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%B7%B4%E8%A5%BF</t>
@@ -359,7 +359,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%8F%B2%E5%BE%8B%E8%B3%93</t>
   </si>
   <si>
-    <t>菲律賓</t>
+    <t>菲律宾</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BB%A5%E8%89%B2%E5%88%97</t>
@@ -449,7 +449,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%B4%A2%E9%A6%AC%E5%88%A9%E4%BA%9E%E6%88%B0%E7%88%AD_(2006%E5%B9%B4%E8%87%B32009%E5%B9%B4)</t>
   </si>
   <si>
-    <t>索馬利亞戰爭 (2006年至2009年)</t>
+    <t>索马利亚战争 (2006年至2009年)</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/War_in_Somalia_(2009%E2%80%93present)</t>
@@ -461,7 +461,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%B0%8D%E4%BC%8A%E6%96%AF%E8%98%AD%E5%9C%8B%E7%9A%84%E8%BB%8D%E4%BA%8B%E6%89%93%E6%93%8A</t>
   </si>
   <si>
-    <t>對伊斯蘭國的軍事打擊</t>
+    <t>对伊斯兰国的军事打击</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%98%BF%E6%8B%89%E4%BC%AF%E8%AF%AD</t>
@@ -473,19 +473,19 @@
     <t>https://zh.wikipedia.org/wiki/%E6%B8%AF%E6%BE%B3%E5%9C%B0%E5%8D%80</t>
   </si>
   <si>
-    <t>港澳地區</t>
+    <t>港澳地区</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8F%B0%E7%81%A3%E8%8F%AF%E8%AA%9E</t>
   </si>
   <si>
-    <t>台灣華語</t>
+    <t>台湾华语</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%96%B0%E9%A6%AC%E8%8F%AF%E8%AA%9E</t>
   </si>
   <si>
-    <t>新馬華語</t>
+    <t>新马华语</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BC%8A%E6%96%AF%E5%85%B0%E6%95%99</t>
@@ -503,13 +503,10 @@
     <t>https://zh.wikipedia.org/wiki/%E8%81%AF%E5%90%88%E5%9C%8B%E5%AE%89%E5%85%A8%E7%90%86%E4%BA%8B%E6%9C%83</t>
   </si>
   <si>
-    <t>聯合國安全理事會</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E6%81%90%E6%80%96%E7%B5%84%E7%B9%94</t>
   </si>
   <si>
-    <t>恐怖組織</t>
+    <t>恐怖组织</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/1979%E5%B9%B4%E9%98%BF%E5%AF%8C%E6%B1%97%E6%88%98%E4%BA%89</t>
@@ -521,7 +518,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%98%87%E8%81%AF</t>
   </si>
   <si>
-    <t>蘇聯</t>
+    <t>苏联</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BC%8A%E6%96%AF%E5%85%B0%E4%B8%96%E7%95%8C</t>
@@ -533,7 +530,7 @@
     <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E6%9D%B1</t>
   </si>
   <si>
-    <t>中東</t>
+    <t>中东</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%98%BF%E6%8B%89%E4%BC%AF%E5%9B%BD%E5%AE%B6</t>
@@ -557,13 +554,13 @@
     <t>https://zh.wikipedia.org/wiki/%E5%B7%B4%E5%9F%BA%E6%96%AF%E5%9D%A6%E6%A8%99%E6%BA%96%E6%99%82%E9%96%93</t>
   </si>
   <si>
-    <t>巴基斯坦標準時間</t>
+    <t>巴基斯坦标准时间</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E8%BB%8D%E9%9A%8A</t>
   </si>
   <si>
-    <t>美國軍隊</t>
+    <t>美国军队</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%98%BF%E4%BC%AF%E5%A1%94%E5%B7%B4%E5%BE%B7</t>
@@ -581,7 +578,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%A8%93%E7%B7%B4</t>
   </si>
   <si>
-    <t>訓練</t>
+    <t>训练</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%AD%A6%E5%99%A8</t>
@@ -593,25 +590,25 @@
     <t>https://zh.wikipedia.org/wiki/%E9%80%9A%E8%A8%8A</t>
   </si>
   <si>
-    <t>通訊</t>
+    <t>通讯</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%82%B3%E7%9C%9F</t>
   </si>
   <si>
-    <t>傳真</t>
+    <t>传真</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%A1%8C%E5%8B%95%E9%9B%BB%E8%A9%B1</t>
   </si>
   <si>
-    <t>行動電話</t>
+    <t>行动电话</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BA%92%E8%81%AF%E7%B6%B2</t>
   </si>
   <si>
-    <t>互聯網</t>
+    <t>互联网</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%BB%8E%E5%B7%B4%E5%AB%A9</t>
@@ -629,13 +626,13 @@
     <t>https://zh.wikipedia.org/wiki/%E5%88%A9%E6%AF%94%E4%BA%9E</t>
   </si>
   <si>
-    <t>利比亞</t>
+    <t>利比亚</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%95%98%E5%88%A9%E4%BA%9E</t>
   </si>
   <si>
-    <t>敘利亞</t>
+    <t>叙利亚</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BC%8A%E6%8B%89%E5%85%8B</t>
@@ -647,13 +644,13 @@
     <t>https://zh.wikipedia.org/wiki/%E5%9F%83%E5%A1%9E%E4%BF%84%E6%AF%94%E4%BA%9E</t>
   </si>
   <si>
-    <t>埃塞俄比亞</t>
+    <t>埃塞俄比亚</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%BB%8A%E8%87%A3%E5%85%B1%E5%92%8C%E5%9C%8B</t>
   </si>
   <si>
-    <t>車臣共和國</t>
+    <t>车臣共和国</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%96%B0%E7%96%86</t>
@@ -665,7 +662,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%9D%B1%E7%AA%81%E5%8E%A5%E6%96%AF%E5%9D%A6</t>
   </si>
   <si>
-    <t>東突厥斯坦</t>
+    <t>东突厥斯坦</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%B4%A2%E9%A9%AC%E9%87%8C%E9%9D%92%E5%B9%B4%E5%85%9A</t>
@@ -677,21 +674,15 @@
     <t>https://zh.wikipedia.org/wiki/%E4%BC%8A%E6%96%AF%E5%85%B0%E5%9B%BD</t>
   </si>
   <si>
-    <t>伊斯兰国</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/1998%E5%B9%B4%E7%BE%8E%E5%9C%8B%E5%A4%A7%E4%BD%BF%E9%A4%A8%E7%88%86%E7%82%B8%E6%A1%88</t>
   </si>
   <si>
-    <t>1998年美國大使館爆炸案</t>
+    <t>1998年美国大使馆爆炸案</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%82%AF%E5%B0%BC%E4%BA%9E</t>
   </si>
   <si>
-    <t>肯尼亞</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E5%B7%A1%E8%88%AA%E5%AF%BC%E5%BC%B9</t>
   </si>
   <si>
@@ -707,7 +698,7 @@
     <t>https://zh.wikipedia.org/wiki/%E4%B9%9D%E4%B8%80%E4%B8%80%E6%81%90%E6%80%96%E8%A5%B2%E6%93%8A%E4%BA%8B%E4%BB%B6</t>
   </si>
   <si>
-    <t>九一一恐怖襲擊事件</t>
+    <t>九一一恐怖袭击事件</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%BD%95%E5%83%8F%E5%B8%A6</t>
@@ -725,13 +716,13 @@
     <t>https://zh.wikipedia.org/wiki/%E5%8D%8A%E5%B3%B6%E9%9B%BB%E8%A6%96%E5%8F%B0</t>
   </si>
   <si>
-    <t>半島電視台</t>
+    <t>半岛电视台</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%80%AB%E6%95%A6%E4%B8%83%E4%B8%83%E7%88%86%E7%82%B8%E6%A1%88</t>
   </si>
   <si>
-    <t>倫敦七七爆炸案</t>
+    <t>伦敦七七爆炸案</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/2011%E5%B9%B4%E5%88%A9%E6%AF%94%E4%BA%9A%E5%86%85%E6%88%98</t>
@@ -749,31 +740,31 @@
     <t>https://zh.wikipedia.org/wiki/%E5%A5%A7%E8%96%A9%E7%91%AA%C2%B7%E8%B3%93%C2%B7%E6%8B%89%E7%99%BB</t>
   </si>
   <si>
-    <t>奧薩瑪·賓·拉登</t>
+    <t>奥萨玛·宾·拉登</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B5%B7%E8%B1%B9%E9%83%A8%E9%9A%8A</t>
   </si>
   <si>
-    <t>海豹部隊</t>
+    <t>海豹部队</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E6%B5%B7%E8%BB%8D%E6%B5%B7%E8%B1%B9%E9%83%A8%E9%9A%8A%E7%AC%AC%E5%85%AD%E5%B0%8F%E9%9A%8A</t>
   </si>
   <si>
-    <t>美國海軍海豹部隊第六小隊</t>
+    <t>美国海军海豹部队第六小队</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A5%A7%E8%96%A9%E7%91%AA%C2%B7%E8%B3%93%C2%B7%E6%8B%89%E7%99%BB%E4%B9%8B%E6%AD%BB</t>
   </si>
   <si>
-    <t>奧薩瑪·賓·拉登之死</t>
+    <t>奥萨玛·宾·拉登之死</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B9%9F%E9%96%80</t>
   </si>
   <si>
-    <t>也門</t>
+    <t>也门</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%98%BF%E6%AF%94%E6%89%AC%E7%9C%81</t>
@@ -785,13 +776,13 @@
     <t>https://zh.wikipedia.org/wiki/%E6%9D%B1%E9%9D%9E</t>
   </si>
   <si>
-    <t>東非</t>
+    <t>东非</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%B4%A2%E9%A6%AC%E9%87%8C</t>
   </si>
   <si>
-    <t>索馬里</t>
+    <t>索马里</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%91%A9%E5%8A%A0%E8%BF%AA%E6%B2%99</t>
@@ -821,7 +812,7 @@
     <t>https://zh.wikipedia.org/wiki/2002%E5%B9%B4%E5%B7%B4%E5%8E%98%E5%B3%B6%E7%88%86%E7%82%B8%E6%A1%88</t>
   </si>
   <si>
-    <t>2002年巴厘島爆炸案</t>
+    <t>2002年巴厘岛爆炸案</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%89%8E%E5%8D%A1%E7%BB%B4</t>
@@ -839,25 +830,25 @@
     <t>https://zh.wikipedia.org/wiki/%E6%B5%B7%E8%B1%B9%E7%89%B9%E7%A8%AE%E9%83%A8%E9%9A%8A</t>
   </si>
   <si>
-    <t>海豹特種部隊</t>
+    <t>海豹特种部队</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%98%BF%E4%BA%9E%E6%8F%90%C2%B7%E9%98%BF%E5%B8%83%E5%BE%B7%C2%B7%E6%8B%89%E5%93%88%E6%9B%BC</t>
   </si>
   <si>
-    <t>阿亞提·阿布德·拉哈曼</t>
+    <t>阿亚提·阿布德·拉哈曼</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E5%A4%AE%E6%83%85%E5%A0%B1%E5%B1%80</t>
   </si>
   <si>
-    <t>中央情報局</t>
+    <t>中央情报局</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%AE%89%E7%93%A6%E7%88%BE%C2%B7%E5%A5%A7%E6%8B%89%E5%9F%BA</t>
   </si>
   <si>
-    <t>安瓦爾·奧拉基</t>
+    <t>安瓦尔·奥拉基</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Abu_Yahya_al-Libi</t>
@@ -905,13 +896,13 @@
     <t>https://zh.wikipedia.org/wiki/%E4%BC%8A%E6%96%AF%E8%98%AD%E7%A5%88%E7%A6%B1%E5%9C%98</t>
   </si>
   <si>
-    <t>伊斯蘭祈禱團</t>
+    <t>伊斯兰祈祷团</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%98%87%E8%90%8A%E6%9B%BC%E9%85%8B%E9%95%B7%E9%81%8B%E5%8B%95</t>
   </si>
   <si>
-    <t>蘇萊曼酋長運動</t>
+    <t>苏莱曼酋长运动</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Islamic_Jihad_Union</t>
@@ -929,13 +920,13 @@
     <t>https://zh.wikipedia.org/wiki/%E6%91%A9%E6%B4%9B%E5%93%A5%E4%BC%8A%E6%96%AF%E8%98%AD%E6%88%B0%E9%AC%A5%E5%9C%98</t>
   </si>
   <si>
-    <t>摩洛哥伊斯蘭戰鬥團</t>
+    <t>摩洛哥伊斯兰战斗团</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%AC%8A%E5%A8%81%E6%8E%A7%E5%88%B6</t>
   </si>
   <si>
-    <t>權威控制</t>
+    <t>权威控制</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%99%9A%E6%8B%9F%E5%9B%BD%E9%99%85%E8%A7%84%E8%8C%83%E6%96%87%E6%A1%A3</t>
@@ -953,7 +944,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%9C%8B%E9%9A%9B%E6%A8%99%E6%BA%96%E5%90%8D%E7%A8%B1%E8%AD%98%E5%88%A5%E7%A2%BC</t>
   </si>
   <si>
-    <t>國際標準名稱識別碼</t>
+    <t>国际标准名称识别码</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%95%B4%E5%90%88%E8%A7%84%E8%8C%83%E6%96%87%E6%A1%A3</t>
@@ -971,7 +962,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%A4%A7%E5%AD%B8%E6%96%87%E6%AA%94%E7%B3%BB%E7%B5%B1</t>
   </si>
   <si>
-    <t>大學文檔系統</t>
+    <t>大学文档系统</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B3%95%E5%9B%BD%E5%9B%BD%E5%AE%B6%E5%9B%BE%E4%B9%A6%E9%A6%86</t>
@@ -983,7 +974,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%9C%8B%E7%AB%8B%E5%9C%8B%E6%9C%83%E5%9C%96%E6%9B%B8%E9%A4%A8</t>
   </si>
   <si>
-    <t>國立國會圖書館</t>
+    <t>国立国会图书馆</t>
   </si>
 </sst>
 </file>
@@ -3703,7 +3694,7 @@
         <v>161</v>
       </c>
       <c r="F82" t="s">
-        <v>162</v>
+        <v>64</v>
       </c>
       <c r="G82" t="n">
         <v>1</v>
@@ -3729,10 +3720,10 @@
         <v>82</v>
       </c>
       <c r="E83" t="s">
+        <v>162</v>
+      </c>
+      <c r="F83" t="s">
         <v>163</v>
-      </c>
-      <c r="F83" t="s">
-        <v>164</v>
       </c>
       <c r="G83" t="n">
         <v>7</v>
@@ -3758,10 +3749,10 @@
         <v>83</v>
       </c>
       <c r="E84" t="s">
+        <v>164</v>
+      </c>
+      <c r="F84" t="s">
         <v>165</v>
-      </c>
-      <c r="F84" t="s">
-        <v>166</v>
       </c>
       <c r="G84" t="n">
         <v>1</v>
@@ -3787,10 +3778,10 @@
         <v>84</v>
       </c>
       <c r="E85" t="s">
+        <v>166</v>
+      </c>
+      <c r="F85" t="s">
         <v>167</v>
-      </c>
-      <c r="F85" t="s">
-        <v>168</v>
       </c>
       <c r="G85" t="n">
         <v>2</v>
@@ -3816,10 +3807,10 @@
         <v>85</v>
       </c>
       <c r="E86" t="s">
+        <v>168</v>
+      </c>
+      <c r="F86" t="s">
         <v>169</v>
-      </c>
-      <c r="F86" t="s">
-        <v>170</v>
       </c>
       <c r="G86" t="n">
         <v>1</v>
@@ -3845,10 +3836,10 @@
         <v>86</v>
       </c>
       <c r="E87" t="s">
+        <v>170</v>
+      </c>
+      <c r="F87" t="s">
         <v>171</v>
-      </c>
-      <c r="F87" t="s">
-        <v>172</v>
       </c>
       <c r="G87" t="n">
         <v>3</v>
@@ -3874,10 +3865,10 @@
         <v>87</v>
       </c>
       <c r="E88" t="s">
+        <v>172</v>
+      </c>
+      <c r="F88" t="s">
         <v>173</v>
-      </c>
-      <c r="F88" t="s">
-        <v>174</v>
       </c>
       <c r="G88" t="n">
         <v>1</v>
@@ -3903,10 +3894,10 @@
         <v>88</v>
       </c>
       <c r="E89" t="s">
+        <v>174</v>
+      </c>
+      <c r="F89" t="s">
         <v>175</v>
-      </c>
-      <c r="F89" t="s">
-        <v>176</v>
       </c>
       <c r="G89" t="n">
         <v>1</v>
@@ -3932,10 +3923,10 @@
         <v>89</v>
       </c>
       <c r="E90" t="s">
+        <v>176</v>
+      </c>
+      <c r="F90" t="s">
         <v>177</v>
-      </c>
-      <c r="F90" t="s">
-        <v>178</v>
       </c>
       <c r="G90" t="n">
         <v>1</v>
@@ -3961,10 +3952,10 @@
         <v>90</v>
       </c>
       <c r="E91" t="s">
+        <v>178</v>
+      </c>
+      <c r="F91" t="s">
         <v>179</v>
-      </c>
-      <c r="F91" t="s">
-        <v>180</v>
       </c>
       <c r="G91" t="n">
         <v>1</v>
@@ -3990,10 +3981,10 @@
         <v>91</v>
       </c>
       <c r="E92" t="s">
+        <v>180</v>
+      </c>
+      <c r="F92" t="s">
         <v>181</v>
-      </c>
-      <c r="F92" t="s">
-        <v>182</v>
       </c>
       <c r="G92" t="n">
         <v>1</v>
@@ -4019,10 +4010,10 @@
         <v>92</v>
       </c>
       <c r="E93" t="s">
+        <v>182</v>
+      </c>
+      <c r="F93" t="s">
         <v>183</v>
-      </c>
-      <c r="F93" t="s">
-        <v>184</v>
       </c>
       <c r="G93" t="n">
         <v>1</v>
@@ -4048,10 +4039,10 @@
         <v>93</v>
       </c>
       <c r="E94" t="s">
+        <v>184</v>
+      </c>
+      <c r="F94" t="s">
         <v>185</v>
-      </c>
-      <c r="F94" t="s">
-        <v>186</v>
       </c>
       <c r="G94" t="n">
         <v>1</v>
@@ -4077,10 +4068,10 @@
         <v>94</v>
       </c>
       <c r="E95" t="s">
+        <v>186</v>
+      </c>
+      <c r="F95" t="s">
         <v>187</v>
-      </c>
-      <c r="F95" t="s">
-        <v>188</v>
       </c>
       <c r="G95" t="n">
         <v>1</v>
@@ -4106,10 +4097,10 @@
         <v>95</v>
       </c>
       <c r="E96" t="s">
+        <v>188</v>
+      </c>
+      <c r="F96" t="s">
         <v>189</v>
-      </c>
-      <c r="F96" t="s">
-        <v>190</v>
       </c>
       <c r="G96" t="n">
         <v>2</v>
@@ -4135,10 +4126,10 @@
         <v>96</v>
       </c>
       <c r="E97" t="s">
+        <v>190</v>
+      </c>
+      <c r="F97" t="s">
         <v>191</v>
-      </c>
-      <c r="F97" t="s">
-        <v>192</v>
       </c>
       <c r="G97" t="n">
         <v>1</v>
@@ -4164,10 +4155,10 @@
         <v>97</v>
       </c>
       <c r="E98" t="s">
+        <v>192</v>
+      </c>
+      <c r="F98" t="s">
         <v>193</v>
-      </c>
-      <c r="F98" t="s">
-        <v>194</v>
       </c>
       <c r="G98" t="n">
         <v>1</v>
@@ -4193,10 +4184,10 @@
         <v>98</v>
       </c>
       <c r="E99" t="s">
+        <v>194</v>
+      </c>
+      <c r="F99" t="s">
         <v>195</v>
-      </c>
-      <c r="F99" t="s">
-        <v>196</v>
       </c>
       <c r="G99" t="n">
         <v>1</v>
@@ -4222,10 +4213,10 @@
         <v>99</v>
       </c>
       <c r="E100" t="s">
+        <v>196</v>
+      </c>
+      <c r="F100" t="s">
         <v>197</v>
-      </c>
-      <c r="F100" t="s">
-        <v>198</v>
       </c>
       <c r="G100" t="n">
         <v>2</v>
@@ -4251,10 +4242,10 @@
         <v>100</v>
       </c>
       <c r="E101" t="s">
+        <v>198</v>
+      </c>
+      <c r="F101" t="s">
         <v>199</v>
-      </c>
-      <c r="F101" t="s">
-        <v>200</v>
       </c>
       <c r="G101" t="n">
         <v>1</v>
@@ -4280,10 +4271,10 @@
         <v>101</v>
       </c>
       <c r="E102" t="s">
+        <v>200</v>
+      </c>
+      <c r="F102" t="s">
         <v>201</v>
-      </c>
-      <c r="F102" t="s">
-        <v>202</v>
       </c>
       <c r="G102" t="n">
         <v>3</v>
@@ -4309,10 +4300,10 @@
         <v>102</v>
       </c>
       <c r="E103" t="s">
+        <v>202</v>
+      </c>
+      <c r="F103" t="s">
         <v>203</v>
-      </c>
-      <c r="F103" t="s">
-        <v>204</v>
       </c>
       <c r="G103" t="n">
         <v>3</v>
@@ -4338,10 +4329,10 @@
         <v>103</v>
       </c>
       <c r="E104" t="s">
+        <v>204</v>
+      </c>
+      <c r="F104" t="s">
         <v>205</v>
-      </c>
-      <c r="F104" t="s">
-        <v>206</v>
       </c>
       <c r="G104" t="n">
         <v>1</v>
@@ -4367,10 +4358,10 @@
         <v>104</v>
       </c>
       <c r="E105" t="s">
+        <v>206</v>
+      </c>
+      <c r="F105" t="s">
         <v>207</v>
-      </c>
-      <c r="F105" t="s">
-        <v>208</v>
       </c>
       <c r="G105" t="n">
         <v>8</v>
@@ -4396,10 +4387,10 @@
         <v>105</v>
       </c>
       <c r="E106" t="s">
+        <v>208</v>
+      </c>
+      <c r="F106" t="s">
         <v>209</v>
-      </c>
-      <c r="F106" t="s">
-        <v>210</v>
       </c>
       <c r="G106" t="n">
         <v>1</v>
@@ -4425,10 +4416,10 @@
         <v>106</v>
       </c>
       <c r="E107" t="s">
+        <v>210</v>
+      </c>
+      <c r="F107" t="s">
         <v>211</v>
-      </c>
-      <c r="F107" t="s">
-        <v>212</v>
       </c>
       <c r="G107" t="n">
         <v>1</v>
@@ -4454,10 +4445,10 @@
         <v>107</v>
       </c>
       <c r="E108" t="s">
+        <v>212</v>
+      </c>
+      <c r="F108" t="s">
         <v>213</v>
-      </c>
-      <c r="F108" t="s">
-        <v>214</v>
       </c>
       <c r="G108" t="n">
         <v>1</v>
@@ -4483,10 +4474,10 @@
         <v>108</v>
       </c>
       <c r="E109" t="s">
+        <v>214</v>
+      </c>
+      <c r="F109" t="s">
         <v>215</v>
-      </c>
-      <c r="F109" t="s">
-        <v>216</v>
       </c>
       <c r="G109" t="n">
         <v>1</v>
@@ -4541,10 +4532,10 @@
         <v>110</v>
       </c>
       <c r="E111" t="s">
+        <v>216</v>
+      </c>
+      <c r="F111" t="s">
         <v>217</v>
-      </c>
-      <c r="F111" t="s">
-        <v>218</v>
       </c>
       <c r="G111" t="n">
         <v>2</v>
@@ -4570,10 +4561,10 @@
         <v>111</v>
       </c>
       <c r="E112" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="F112" t="s">
-        <v>220</v>
+        <v>58</v>
       </c>
       <c r="G112" t="n">
         <v>1</v>
@@ -4599,10 +4590,10 @@
         <v>112</v>
       </c>
       <c r="E113" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="F113" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="G113" t="n">
         <v>1</v>
@@ -4628,10 +4619,10 @@
         <v>113</v>
       </c>
       <c r="E114" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="F114" t="s">
-        <v>224</v>
+        <v>102</v>
       </c>
       <c r="G114" t="n">
         <v>1</v>
@@ -4657,10 +4648,10 @@
         <v>114</v>
       </c>
       <c r="E115" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="F115" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="G115" t="n">
         <v>1</v>
@@ -4686,10 +4677,10 @@
         <v>115</v>
       </c>
       <c r="E116" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="F116" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="G116" t="n">
         <v>1</v>
@@ -4715,10 +4706,10 @@
         <v>116</v>
       </c>
       <c r="E117" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="F117" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="G117" t="n">
         <v>1</v>
@@ -4744,10 +4735,10 @@
         <v>117</v>
       </c>
       <c r="E118" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="F118" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="G118" t="n">
         <v>1</v>
@@ -4773,10 +4764,10 @@
         <v>118</v>
       </c>
       <c r="E119" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="F119" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="G119" t="n">
         <v>1</v>
@@ -4802,10 +4793,10 @@
         <v>119</v>
       </c>
       <c r="E120" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="F120" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="G120" t="n">
         <v>1</v>
@@ -4831,10 +4822,10 @@
         <v>120</v>
       </c>
       <c r="E121" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
       <c r="F121" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="G121" t="n">
         <v>1</v>
@@ -4860,10 +4851,10 @@
         <v>121</v>
       </c>
       <c r="E122" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
       <c r="F122" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="G122" t="n">
         <v>1</v>
@@ -4889,10 +4880,10 @@
         <v>122</v>
       </c>
       <c r="E123" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="F123" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="G123" t="n">
         <v>2</v>
@@ -4918,10 +4909,10 @@
         <v>123</v>
       </c>
       <c r="E124" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
       <c r="F124" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="G124" t="n">
         <v>3</v>
@@ -4947,10 +4938,10 @@
         <v>124</v>
       </c>
       <c r="E125" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="F125" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="G125" t="n">
         <v>1</v>
@@ -4976,10 +4967,10 @@
         <v>125</v>
       </c>
       <c r="E126" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="F126" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="G126" t="n">
         <v>1</v>
@@ -5005,10 +4996,10 @@
         <v>126</v>
       </c>
       <c r="E127" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
       <c r="F127" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="G127" t="n">
         <v>3</v>
@@ -5034,10 +5025,10 @@
         <v>127</v>
       </c>
       <c r="E128" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
       <c r="F128" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="G128" t="n">
         <v>4</v>
@@ -5063,10 +5054,10 @@
         <v>128</v>
       </c>
       <c r="E129" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="F129" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="G129" t="n">
         <v>1</v>
@@ -5092,10 +5083,10 @@
         <v>129</v>
       </c>
       <c r="E130" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="F130" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="G130" t="n">
         <v>5</v>
@@ -5121,10 +5112,10 @@
         <v>130</v>
       </c>
       <c r="E131" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="F131" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="G131" t="n">
         <v>1</v>
@@ -5179,10 +5170,10 @@
         <v>132</v>
       </c>
       <c r="E133" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
       <c r="F133" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
       <c r="G133" t="n">
         <v>1</v>
@@ -5208,10 +5199,10 @@
         <v>133</v>
       </c>
       <c r="E134" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="F134" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
       <c r="G134" t="n">
         <v>3</v>
@@ -5237,10 +5228,10 @@
         <v>134</v>
       </c>
       <c r="E135" t="s">
-        <v>263</v>
+        <v>260</v>
       </c>
       <c r="F135" t="s">
-        <v>264</v>
+        <v>261</v>
       </c>
       <c r="G135" t="n">
         <v>1</v>
@@ -5266,10 +5257,10 @@
         <v>135</v>
       </c>
       <c r="E136" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
       <c r="F136" t="s">
-        <v>266</v>
+        <v>263</v>
       </c>
       <c r="G136" t="n">
         <v>1</v>
@@ -5295,10 +5286,10 @@
         <v>136</v>
       </c>
       <c r="E137" t="s">
-        <v>267</v>
+        <v>264</v>
       </c>
       <c r="F137" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="G137" t="n">
         <v>1</v>
@@ -5324,10 +5315,10 @@
         <v>137</v>
       </c>
       <c r="E138" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
       <c r="F138" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="G138" t="n">
         <v>1</v>
@@ -5353,10 +5344,10 @@
         <v>138</v>
       </c>
       <c r="E139" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
       <c r="F139" t="s">
-        <v>272</v>
+        <v>269</v>
       </c>
       <c r="G139" t="n">
         <v>1</v>
@@ -5382,10 +5373,10 @@
         <v>139</v>
       </c>
       <c r="E140" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
       <c r="F140" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="G140" t="n">
         <v>1</v>
@@ -5411,10 +5402,10 @@
         <v>140</v>
       </c>
       <c r="E141" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c r="F141" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="G141" t="n">
         <v>1</v>
@@ -5440,10 +5431,10 @@
         <v>141</v>
       </c>
       <c r="E142" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="F142" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c r="G142" t="n">
         <v>1</v>
@@ -5469,10 +5460,10 @@
         <v>142</v>
       </c>
       <c r="E143" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
       <c r="F143" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="G143" t="n">
         <v>1</v>
@@ -5498,10 +5489,10 @@
         <v>143</v>
       </c>
       <c r="E144" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
       <c r="F144" t="s">
-        <v>282</v>
+        <v>279</v>
       </c>
       <c r="G144" t="n">
         <v>1</v>
@@ -5527,10 +5518,10 @@
         <v>144</v>
       </c>
       <c r="E145" t="s">
-        <v>283</v>
+        <v>280</v>
       </c>
       <c r="F145" t="s">
-        <v>284</v>
+        <v>281</v>
       </c>
       <c r="G145" t="n">
         <v>2</v>
@@ -5556,10 +5547,10 @@
         <v>145</v>
       </c>
       <c r="E146" t="s">
-        <v>285</v>
+        <v>282</v>
       </c>
       <c r="F146" t="s">
-        <v>286</v>
+        <v>283</v>
       </c>
       <c r="G146" t="n">
         <v>1</v>
@@ -5585,10 +5576,10 @@
         <v>146</v>
       </c>
       <c r="E147" t="s">
-        <v>287</v>
+        <v>284</v>
       </c>
       <c r="F147" t="s">
-        <v>288</v>
+        <v>285</v>
       </c>
       <c r="G147" t="n">
         <v>1</v>
@@ -5614,10 +5605,10 @@
         <v>147</v>
       </c>
       <c r="E148" t="s">
-        <v>289</v>
+        <v>286</v>
       </c>
       <c r="F148" t="s">
-        <v>290</v>
+        <v>287</v>
       </c>
       <c r="G148" t="n">
         <v>1</v>
@@ -5672,10 +5663,10 @@
         <v>149</v>
       </c>
       <c r="E150" t="s">
-        <v>291</v>
+        <v>288</v>
       </c>
       <c r="F150" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="G150" t="n">
         <v>1</v>
@@ -5730,10 +5721,10 @@
         <v>151</v>
       </c>
       <c r="E152" t="s">
-        <v>293</v>
+        <v>290</v>
       </c>
       <c r="F152" t="s">
-        <v>294</v>
+        <v>291</v>
       </c>
       <c r="G152" t="n">
         <v>1</v>
@@ -5817,10 +5808,10 @@
         <v>154</v>
       </c>
       <c r="E155" t="s">
-        <v>295</v>
+        <v>292</v>
       </c>
       <c r="F155" t="s">
-        <v>296</v>
+        <v>293</v>
       </c>
       <c r="G155" t="n">
         <v>1</v>
@@ -5846,10 +5837,10 @@
         <v>155</v>
       </c>
       <c r="E156" t="s">
-        <v>297</v>
+        <v>294</v>
       </c>
       <c r="F156" t="s">
-        <v>298</v>
+        <v>295</v>
       </c>
       <c r="G156" t="n">
         <v>1</v>
@@ -5875,10 +5866,10 @@
         <v>156</v>
       </c>
       <c r="E157" t="s">
-        <v>299</v>
+        <v>296</v>
       </c>
       <c r="F157" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
       <c r="G157" t="n">
         <v>1</v>
@@ -5904,10 +5895,10 @@
         <v>157</v>
       </c>
       <c r="E158" t="s">
-        <v>301</v>
+        <v>298</v>
       </c>
       <c r="F158" t="s">
-        <v>302</v>
+        <v>299</v>
       </c>
       <c r="G158" t="n">
         <v>1</v>
@@ -5933,10 +5924,10 @@
         <v>158</v>
       </c>
       <c r="E159" t="s">
-        <v>303</v>
+        <v>300</v>
       </c>
       <c r="F159" t="s">
-        <v>304</v>
+        <v>301</v>
       </c>
       <c r="G159" t="n">
         <v>1</v>
@@ -5991,10 +5982,10 @@
         <v>160</v>
       </c>
       <c r="E161" t="s">
-        <v>305</v>
+        <v>302</v>
       </c>
       <c r="F161" t="s">
-        <v>306</v>
+        <v>303</v>
       </c>
       <c r="G161" t="n">
         <v>3</v>
@@ -6020,10 +6011,10 @@
         <v>161</v>
       </c>
       <c r="E162" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
       <c r="F162" t="s">
-        <v>308</v>
+        <v>305</v>
       </c>
       <c r="G162" t="n">
         <v>1</v>
@@ -6049,10 +6040,10 @@
         <v>162</v>
       </c>
       <c r="E163" t="s">
-        <v>309</v>
+        <v>306</v>
       </c>
       <c r="F163" t="s">
-        <v>310</v>
+        <v>307</v>
       </c>
       <c r="G163" t="n">
         <v>1</v>
@@ -6078,10 +6069,10 @@
         <v>163</v>
       </c>
       <c r="E164" t="s">
-        <v>311</v>
+        <v>308</v>
       </c>
       <c r="F164" t="s">
-        <v>312</v>
+        <v>309</v>
       </c>
       <c r="G164" t="n">
         <v>1</v>
@@ -6107,10 +6098,10 @@
         <v>164</v>
       </c>
       <c r="E165" t="s">
-        <v>313</v>
+        <v>310</v>
       </c>
       <c r="F165" t="s">
-        <v>314</v>
+        <v>311</v>
       </c>
       <c r="G165" t="n">
         <v>1</v>
@@ -6136,10 +6127,10 @@
         <v>165</v>
       </c>
       <c r="E166" t="s">
-        <v>315</v>
+        <v>312</v>
       </c>
       <c r="F166" t="s">
-        <v>316</v>
+        <v>313</v>
       </c>
       <c r="G166" t="n">
         <v>1</v>
@@ -6165,10 +6156,10 @@
         <v>166</v>
       </c>
       <c r="E167" t="s">
-        <v>317</v>
+        <v>314</v>
       </c>
       <c r="F167" t="s">
-        <v>318</v>
+        <v>315</v>
       </c>
       <c r="G167" t="n">
         <v>1</v>
@@ -6194,10 +6185,10 @@
         <v>167</v>
       </c>
       <c r="E168" t="s">
-        <v>319</v>
+        <v>316</v>
       </c>
       <c r="F168" t="s">
-        <v>320</v>
+        <v>317</v>
       </c>
       <c r="G168" t="n">
         <v>1</v>
@@ -6223,10 +6214,10 @@
         <v>168</v>
       </c>
       <c r="E169" t="s">
-        <v>321</v>
+        <v>318</v>
       </c>
       <c r="F169" t="s">
-        <v>322</v>
+        <v>319</v>
       </c>
       <c r="G169" t="n">
         <v>1</v>
